--- a/nr-update-is-links/ig/CodeSystem-fr-medication-history-source-type.xlsx
+++ b/nr-update-is-links/ig/CodeSystem-fr-medication-history-source-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T14:37:08+00:00</t>
+    <t>2024-12-23T15:03:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-is-links/ig/CodeSystem-fr-medication-history-source-type.xlsx
+++ b/nr-update-is-links/ig/CodeSystem-fr-medication-history-source-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:03:08+00:00</t>
+    <t>2024-12-23T15:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-is-links/ig/CodeSystem-fr-medication-history-source-type.xlsx
+++ b/nr-update-is-links/ig/CodeSystem-fr-medication-history-source-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:06:22+00:00</t>
+    <t>2024-12-23T15:21:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-is-links/ig/CodeSystem-fr-medication-history-source-type.xlsx
+++ b/nr-update-is-links/ig/CodeSystem-fr-medication-history-source-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:21:49+00:00</t>
+    <t>2024-12-23T15:22:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-is-links/ig/CodeSystem-fr-medication-history-source-type.xlsx
+++ b/nr-update-is-links/ig/CodeSystem-fr-medication-history-source-type.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-23T15:22:28+00:00</t>
+    <t>2024-12-23T15:55:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
